--- a/biology/Médecine/Christophe_Fauré/Christophe_Fauré.xlsx
+++ b/biology/Médecine/Christophe_Fauré/Christophe_Fauré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Christophe_Faur%C3%A9</t>
+          <t>Christophe_Fauré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Christophe Fauré, né le 7 mai 1963 au Havre, est un psychiatre et psychothérapeute français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Christophe_Faur%C3%A9</t>
+          <t>Christophe_Fauré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christophe Fauré est psychiatre libéral à Paris[1], et a exercé dans les unités de soins palliatifs de l’Hôpital Paul-Brousse à Villejuif et à la maison médicale Jeanne-Garnier à Paris. Il est spécialiste de l'accompagnement en fin de vie, du deuil et du travail de deuil des proches[2].
-En décembre 1996, un de ses amis le fait rencontrer Lama Puntso, un lama directeur spirituel du monastère de l'école karma-kagyu du bouddhisme tibétain Dhagpo Kagyu Ling en Dordogne. Christophe Fauré y effectue une retraite de mai 2001 à mai 2003[3]. Il étudie le bouddhisme et pratique la méditation depuis[4].
-Son travail et ses ouvrages se centrent autour des « grands passages de la vie[5] » ou des « ruptures[6] » : celles de la maladie (Vivre ensemble la maladie d’un proche[7]), de la fin de vie (Accompagner un proche en fin de vie), du deuil[8] (Vivre le deuil au jour le jour, et Après le suicide d’un proche) et du couple (Le couple brisé ; Ensemble mais seuls ; Est-ce que tu m’aimes encore ?, essai autour de l'infidélité[9], et, en 2014 Comment t'aimer toi et tes enfants ?).
-Son ouvrage Maintenant ou jamais – La Transition du Milieu de la Vie obtient le Prix Psychologies-Fnac 2013 du meilleur essai[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophe Fauré est psychiatre libéral à Paris, et a exercé dans les unités de soins palliatifs de l’Hôpital Paul-Brousse à Villejuif et à la maison médicale Jeanne-Garnier à Paris. Il est spécialiste de l'accompagnement en fin de vie, du deuil et du travail de deuil des proches.
+En décembre 1996, un de ses amis le fait rencontrer Lama Puntso, un lama directeur spirituel du monastère de l'école karma-kagyu du bouddhisme tibétain Dhagpo Kagyu Ling en Dordogne. Christophe Fauré y effectue une retraite de mai 2001 à mai 2003. Il étudie le bouddhisme et pratique la méditation depuis.
+Son travail et ses ouvrages se centrent autour des « grands passages de la vie » ou des « ruptures » : celles de la maladie (Vivre ensemble la maladie d’un proche), de la fin de vie (Accompagner un proche en fin de vie), du deuil (Vivre le deuil au jour le jour, et Après le suicide d’un proche) et du couple (Le couple brisé ; Ensemble mais seuls ; Est-ce que tu m’aimes encore ?, essai autour de l'infidélité, et, en 2014 Comment t'aimer toi et tes enfants ?).
+Son ouvrage Maintenant ou jamais – La Transition du Milieu de la Vie obtient le Prix Psychologies-Fnac 2013 du meilleur essai.
 Christophe Fauré intervient ponctuellement dans le Magazine de la santé sur France 5, dans l'émission « Les Experts »  sur Europe 1, sur RTL, et dans la revue Psychologies magazine.[réf. souhaitée]
-Il est membre du Conseil d’Administration de l’association « Vivre son deuil Ile de France »[2] et parrain de plusieurs associations : l’association « Phare Enfants Parents » (œuvrant pour la prévention du suicide de l’adolescent et l’accompagnement des parents en deuil après suicide), l’association « Apprivoiser l’absence » organisant des groupes de parole pour les parents en deuil, et de la fondation OGF.
+Il est membre du Conseil d’Administration de l’association « Vivre son deuil Ile de France » et parrain de plusieurs associations : l’association « Phare Enfants Parents » (œuvrant pour la prévention du suicide de l’adolescent et l’accompagnement des parents en deuil après suicide), l’association « Apprivoiser l’absence » organisant des groupes de parole pour les parents en deuil, et de la fondation OGF.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Christophe_Faur%C3%A9</t>
+          <t>Christophe_Fauré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,14 +561,16 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Vivre ensemble la maladie d’un proche[7], Albin Michel, 2002
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vivre ensemble la maladie d’un proche, Albin Michel, 2002
 Le couple brisé – Vivre la rupture et se reconstruire, Albin Michel, 2002
 Vivre le deuil au jour le jour, Albin Michel, 2004 ; nouvelle édition augmentée, 2012
 Après le suicide d’un proche - Vivre le deuil et se reconstruire, Albin Michel, 2007
 Ensemble mais seuls – Apprivoiser le sentiment de solitude dans le couple, Albin Michel, 2009
-Maintenant ou jamais – La Transition du Milieu de la Vie, Albin Michel, 2011 Prix Psychologies-Fnac 2013 du meilleur essai [10]
+Maintenant ou jamais – La Transition du Milieu de la Vie, Albin Michel, 2011 Prix Psychologies-Fnac 2013 du meilleur essai 
 Est-ce que tu m’aimes encore ? – Se reconstruire après l’infidélité, Albin Michel, 2013
 Comment t'aimer toi et tes enfants ?, Albin Michel, 2014
  Accompagner un proche en fin de vie : savoir l'écouter, le comprendre et communiquer avec les médecins (avec la participation de Stéphane Allix), Albin Michel, 2016
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Christophe_Faur%C3%A9</t>
+          <t>Christophe_Fauré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,9 +610,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2013 : Prix Psychologies-Fnac du meilleur essai pour son livre Maintenant ou jamais – La Transition du Milieu de la Vie[10]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2013 : Prix Psychologies-Fnac du meilleur essai pour son livre Maintenant ou jamais – La Transition du Milieu de la Vie</t>
         </is>
       </c>
     </row>
@@ -606,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Christophe_Faur%C3%A9</t>
+          <t>Christophe_Fauré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +642,9 @@
           <t>Participation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Christophe Fauré intervient en tant que psychiatre de l'Hôpital Necker à Paris, dans le film documentaire canadien autour du suicide Le Voyage d'une vie de Maryse Chartrand, en 2007.
 </t>
